--- a/Rapport/Burndown Chart Kino XP.xlsx
+++ b/Rapport/Burndown Chart Kino XP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\Kino-XP\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3635A-771C-4A8F-B717-A56172CC652C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E5FD6E-12B3-43FA-9953-58A7B327A1EC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="27405" windowHeight="12810" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27405" windowHeight="12810" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1330,13 +1330,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,7 +1676,7 @@
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
@@ -1712,6 +1712,9 @@
       <c r="C2">
         <v>0.5</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1732,6 +1735,9 @@
       <c r="C3">
         <v>0.25</v>
       </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
@@ -1752,6 +1758,9 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
@@ -1773,6 +1782,9 @@
       <c r="C5">
         <v>0.5</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5" s="5">
         <v>2</v>
       </c>
@@ -1781,7 +1793,7 @@
       </c>
       <c r="G5">
         <f>G4-SUM(D2:D11)</f>
-        <v>17.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1793,6 +1805,9 @@
       </c>
       <c r="C6">
         <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="9"/>
@@ -1807,6 +1822,9 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1819,6 +1837,9 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1831,6 +1852,9 @@
       <c r="C9">
         <v>0.5</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1843,6 +1867,9 @@
       <c r="C10">
         <v>0.25</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1852,9 +1879,11 @@
       <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
       <c r="D11" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="4"/>
@@ -1878,7 +1907,7 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D11)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="2"/>

--- a/Rapport/Burndown Chart Kino XP.xlsx
+++ b/Rapport/Burndown Chart Kino XP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\Kino-XP\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E5FD6E-12B3-43FA-9953-58A7B327A1EC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F267DB0D-3A44-429E-89EB-FA249C8762EA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27405" windowHeight="12810" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
+    <workbookView xWindow="4185" yWindow="0" windowWidth="27405" windowHeight="12810" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rapport/Burndown Chart Kino XP.xlsx
+++ b/Rapport/Burndown Chart Kino XP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\Kino-XP\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F267DB0D-3A44-429E-89EB-FA249C8762EA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA48F1A-AB67-4374-A5B5-D4FDA0980A9E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="0" windowWidth="27405" windowHeight="12810" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="27405" windowHeight="12810" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Iteration 1</t>
   </si>
@@ -83,16 +83,37 @@
     <t>Used Day 2 (t)</t>
   </si>
   <si>
-    <t>Consumable hours uge 1:</t>
-  </si>
-  <si>
     <t>Estimated left</t>
   </si>
   <si>
-    <t>Consumable hours uge 2:</t>
-  </si>
-  <si>
     <t>Actual left</t>
+  </si>
+  <si>
+    <t>Grafisk &amp; interaktiv oversigt over sæder</t>
+  </si>
+  <si>
+    <t>Opret booking</t>
+  </si>
+  <si>
+    <t>Booking oversigt</t>
+  </si>
+  <si>
+    <t>Dropdown over filmkategorier</t>
+  </si>
+  <si>
+    <t>Opret visninger</t>
+  </si>
+  <si>
+    <t>Opret film</t>
+  </si>
+  <si>
+    <t>Redigér film</t>
+  </si>
+  <si>
+    <t>Consumable hours iteration 2:</t>
+  </si>
+  <si>
+    <t>Consumable hours iteration 1:</t>
   </si>
 </sst>
 </file>
@@ -185,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -197,6 +218,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1665,19 +1687,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E23570A-1FA5-4B45-ADC2-3588A643C865}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F17" sqref="F17:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
@@ -1696,7 +1718,7 @@
         <v>16</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F1">
         <v>24</v>
@@ -1719,10 +1741,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1925,18 +1947,131 @@
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F16">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>3.25</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>G18-SUM(C17:C23)</f>
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <f>SUM(B17:B23)</f>
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <f>SUM(C17:C23)</f>
+        <v>16.91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rapport/Burndown Chart Kino XP.xlsx
+++ b/Rapport/Burndown Chart Kino XP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\Kino-XP\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA48F1A-AB67-4374-A5B5-D4FDA0980A9E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A22431B-EC63-4532-A797-2C6E93CA0891}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="27405" windowHeight="12810" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
+    <workbookView xWindow="6975" yWindow="0" windowWidth="27405" windowHeight="12810" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Iteration 1</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>Consumable hours iteration 1:</t>
+  </si>
+  <si>
+    <t>Used day 2 (t)</t>
+  </si>
+  <si>
+    <t>Tilføj status til sæder</t>
+  </si>
+  <si>
+    <t>CSS forside</t>
+  </si>
+  <si>
+    <t>Separat header</t>
   </si>
 </sst>
 </file>
@@ -791,7 +803,450 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Iteration 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$F$18:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-925F-47D4-9DD5-AC0FCA0397AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$G$18:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-925F-47D4-9DD5-AC0FCA0397AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="163309807"/>
+        <c:axId val="160242399"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="163309807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="160242399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="160242399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="163309807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1347,6 +1802,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1382,6 +2340,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7AD9F5-4498-482E-B2D6-2BA735CBCC26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1687,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E23570A-1FA5-4B45-ADC2-3588A643C865}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:G19"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,12 +2941,14 @@
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="E16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F16">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1965,6 +2961,9 @@
       <c r="C17">
         <v>6</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1985,14 +2984,17 @@
       <c r="C18">
         <v>3.25</v>
       </c>
+      <c r="D18">
+        <v>1.5</v>
+      </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G18">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2005,15 +3007,18 @@
       <c r="C19">
         <v>0.5</v>
       </c>
+      <c r="D19">
+        <v>1.5</v>
+      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G19">
-        <f>G18-SUM(C17:C23)</f>
-        <v>7.09</v>
+        <f>G18-SUM(C17:C26)</f>
+        <v>19.09</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2026,6 +3031,19 @@
       <c r="C20">
         <v>1.5</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>G19-SUM(D17:D26)</f>
+        <v>7.59</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -2037,6 +3055,9 @@
       <c r="C21">
         <v>2</v>
       </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -2048,6 +3069,9 @@
       <c r="C22">
         <v>0.66</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -2059,18 +3083,67 @@
       <c r="C23">
         <v>3</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B25">
-        <f>SUM(B17:B23)</f>
-        <v>21</v>
-      </c>
-      <c r="C25">
-        <f>SUM(C17:C23)</f>
+      <c r="B27">
+        <f>SUM(B17:B26)</f>
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <f>SUM(C17:C26)</f>
         <v>16.91</v>
+      </c>
+      <c r="D27">
+        <f>SUM(D17:D26)</f>
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>

--- a/Rapport/Burndown Chart Kino XP.xlsx
+++ b/Rapport/Burndown Chart Kino XP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\Kino-XP\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A22431B-EC63-4532-A797-2C6E93CA0891}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA48F1A-AB67-4374-A5B5-D4FDA0980A9E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="0" windowWidth="27405" windowHeight="12810" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="27405" windowHeight="12810" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Iteration 1</t>
   </si>
@@ -114,18 +114,6 @@
   </si>
   <si>
     <t>Consumable hours iteration 1:</t>
-  </si>
-  <si>
-    <t>Used day 2 (t)</t>
-  </si>
-  <si>
-    <t>Tilføj status til sæder</t>
-  </si>
-  <si>
-    <t>CSS forside</t>
-  </si>
-  <si>
-    <t>Separat header</t>
   </si>
 </sst>
 </file>
@@ -803,450 +791,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="da-DK"/>
-              <a:t>Iteration 2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$F$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Estimated left</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ark1'!$F$18:$F$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-925F-47D4-9DD5-AC0FCA0397AA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$G$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual left</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ark1'!$G$18:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.09</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.59</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-925F-47D4-9DD5-AC0FCA0397AA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="163309807"/>
-        <c:axId val="160242399"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="163309807"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="160242399"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="160242399"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="163309807"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1449,509 +994,6 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2340,42 +1382,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagram 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7AD9F5-4498-482E-B2D6-2BA735CBCC26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2681,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E23570A-1FA5-4B45-ADC2-3588A643C865}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F17" sqref="F17:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,14 +1947,12 @@
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F16">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2961,9 +1965,6 @@
       <c r="C17">
         <v>6</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
       <c r="E17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2984,17 +1985,14 @@
       <c r="C18">
         <v>3.25</v>
       </c>
-      <c r="D18">
-        <v>1.5</v>
-      </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G18">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3007,18 +2005,15 @@
       <c r="C19">
         <v>0.5</v>
       </c>
-      <c r="D19">
-        <v>1.5</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <f>G18-SUM(C17:C26)</f>
-        <v>19.09</v>
+        <f>G18-SUM(C17:C23)</f>
+        <v>7.09</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3031,19 +2026,6 @@
       <c r="C20">
         <v>1.5</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f>G19-SUM(D17:D26)</f>
-        <v>7.59</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -3055,9 +2037,6 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -3069,9 +2048,6 @@
       <c r="C22">
         <v>0.66</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -3083,67 +2059,18 @@
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>29</v>
+      <c r="A25" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <f>SUM(B17:B23)</f>
+        <v>21</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <f>SUM(B17:B26)</f>
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <f>SUM(C17:C26)</f>
+        <f>SUM(C17:C23)</f>
         <v>16.91</v>
-      </c>
-      <c r="D27">
-        <f>SUM(D17:D26)</f>
-        <v>11.5</v>
       </c>
     </row>
   </sheetData>

--- a/Rapport/Burndown Chart Kino XP.xlsx
+++ b/Rapport/Burndown Chart Kino XP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\Kino-XP\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA48F1A-AB67-4374-A5B5-D4FDA0980A9E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C24A82-B2E3-4879-A5FD-5513A8568264}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="27405" windowHeight="12810" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
+    <workbookView xWindow="6975" yWindow="0" windowWidth="27405" windowHeight="12810" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Iteration 1</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Consumable hours iteration 1:</t>
+  </si>
+  <si>
+    <t>Opdateret d. 23-10-2018</t>
   </si>
 </sst>
 </file>
@@ -1687,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E23570A-1FA5-4B45-ADC2-3588A643C865}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:G19"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1707,7 @@
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1723,8 +1726,11 @@
       <c r="F1">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1770,7 +1776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1834,7 +1840,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1849,7 +1855,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1864,7 +1870,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1879,7 +1885,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1894,7 +1900,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1912,10 +1918,10 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -1936,8 +1942,8 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>

--- a/Rapport/Burndown Chart Kino XP.xlsx
+++ b/Rapport/Burndown Chart Kino XP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\Kino-XP\Rapport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benazeerturkmani/Desktop/Opgave/Kino-XP/Rapport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C24A82-B2E3-4879-A5FD-5513A8568264}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27304355-ED22-5944-B9B1-2366EEF90853}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="0" windowWidth="27405" windowHeight="12810" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12820" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Iteration 1</t>
   </si>
@@ -117,6 +112,36 @@
   </si>
   <si>
     <t>Opdateret d. 23-10-2018</t>
+  </si>
+  <si>
+    <t>day 2</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Lav en tabel i HTML der viser en vagtplan</t>
+  </si>
+  <si>
+    <t>Timer uge 1:</t>
+  </si>
+  <si>
+    <t>Lav en Slik tabel og klasse, samt tabel til ..</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Hours left</t>
+  </si>
+  <si>
+    <t>Lav en opret/redigér slik funktion</t>
+  </si>
+  <si>
+    <t>Lav salg af slik med dropdown og antal.</t>
   </si>
 </sst>
 </file>
@@ -794,7 +819,914 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Iteration 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7136482939632549E-2"/>
+          <c:y val="0.13004629629629633"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$F$18:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AC3-E145-9B76-64CFA409BD74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$G$18:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.090000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7AC3-E145-9B76-64CFA409BD74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="79101632"/>
+        <c:axId val="79096112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="79101632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79096112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79096112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79101632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Iteration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$F$34:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B3C-B24C-8428-2D0F06B8F125}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hours left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$G$34:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B3C-B24C-8428-2D0F06B8F125}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2639984"/>
+        <c:axId val="81399776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2639984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81399776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81399776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2639984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1350,6 +2282,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1385,6 +3323,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017CAD05-D773-1648-95B7-95D4CD868ECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36D2964-2894-2648-9AB4-14152FA06286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1690,24 +3700,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E23570A-1FA5-4B45-ADC2-3588A643C865}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +3740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +3763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1776,7 +3786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1800,7 +3810,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +3834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1840,7 +3850,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1855,7 +3865,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1870,7 +3880,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1885,7 +3895,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1900,7 +3910,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1918,10 +3928,10 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -1942,8 +3952,8 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1953,15 +3963,17 @@
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F16">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1971,6 +3983,9 @@
       <c r="C17">
         <v>6</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1981,7 +3996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
@@ -1991,17 +4006,22 @@
       <c r="C18">
         <v>3.25</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24</v>
+        <f>F16</f>
+        <v>36</v>
       </c>
       <c r="G18">
-        <v>24</v>
+        <f>F16</f>
+        <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
@@ -2011,18 +4031,22 @@
       <c r="C19">
         <v>0.5</v>
       </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <f>F18-12</f>
+        <v>24</v>
       </c>
       <c r="G19">
-        <f>G18-SUM(C17:C23)</f>
-        <v>7.09</v>
+        <f>G18-C26</f>
+        <v>27.545000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -2032,8 +4056,22 @@
       <c r="C20">
         <v>1.5</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f>F16-24</f>
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <f>G19-C26</f>
+        <v>19.090000000000003</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
@@ -2043,8 +4081,21 @@
       <c r="C21">
         <v>2</v>
       </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>G20-D25</f>
+        <v>10.090000000000003</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
@@ -2054,8 +4105,11 @@
       <c r="C22">
         <v>0.66</v>
       </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
@@ -2065,8 +4119,11 @@
       <c r="C23">
         <v>3</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -2077,6 +4134,124 @@
       <c r="C25">
         <f>SUM(C17:C23)</f>
         <v>16.91</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D17:D23)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f>C25/2</f>
+        <v>8.4550000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>18</v>
+      </c>
+      <c r="G34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>

--- a/Rapport/Burndown Chart Kino XP.xlsx
+++ b/Rapport/Burndown Chart Kino XP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benazeerturkmani/Desktop/Opgave/Kino-XP/Rapport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\Kino-XP\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27304355-ED22-5944-B9B1-2366EEF90853}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF1A723-D79F-4FA7-B0DD-95741163567B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12820" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="12816" xr2:uid="{CADBAEDD-29BA-4A58-BDD9-E1DB6333F0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -895,8 +900,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.7136482939632549E-2"/>
-          <c:y val="0.13004629629629633"/>
+          <c:x val="9.7136436271646295E-2"/>
+          <c:y val="0.16858207030479574"/>
           <c:w val="0.90286351706036749"/>
           <c:h val="0.61498432487605714"/>
         </c:manualLayout>
@@ -1056,6 +1061,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Dage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1121,6 +1181,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Timer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1464,6 +1579,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Dage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1528,6 +1698,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Timer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3330,16 +3555,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1253490</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>847090</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3366,16 +3591,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>753110</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3702,22 +3927,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E23570A-1FA5-4B45-ADC2-3588A643C865}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3740,7 +3965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3763,7 +3988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3786,7 +4011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3810,7 +4035,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3834,7 +4059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3850,7 +4075,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3865,7 +4090,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3880,7 +4105,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3895,7 +4120,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3910,7 +4135,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -3928,10 +4153,10 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -3952,8 +4177,8 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:19" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -3973,7 +4198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3996,7 +4221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
@@ -4021,7 +4246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
@@ -4046,7 +4271,7 @@
         <v>27.545000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -4071,7 +4296,7 @@
         <v>19.090000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
@@ -4095,7 +4320,7 @@
         <v>10.090000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
@@ -4109,7 +4334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
@@ -4123,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -4140,13 +4365,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26">
         <f>C25/2</f>
         <v>8.4550000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4157,7 +4382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -4174,7 +4399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -4197,7 +4422,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -4220,7 +4445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -4243,7 +4468,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E36">
         <v>2</v>
       </c>
